--- a/Flight Payload/Perovskite Performance/P1_Assembled/X018_PreSatellite/curve_0.0_2_Reverse.xlsx
+++ b/Flight Payload/Perovskite Performance/P1_Assembled/X018_PreSatellite/curve_0.0_2_Reverse.xlsx
@@ -1,16 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Big-Red-Sat-1\Flight Payload\Perovskite Performance\P1_Assembled\X018_PreSatellite\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F80402-A3FA-45D7-A924-E2A840C7F2CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -80,11 +99,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +113,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -133,28 +159,39 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -192,7 +229,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -226,6 +263,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -260,9 +298,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -435,27 +474,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>45220.62507092753</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>45220.625070927526</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -463,7 +504,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -471,15 +512,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.058</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -487,7 +528,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -495,63 +536,62 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.004820512820512821</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <f>MAX(Data!$B$2:$B$257)</f>
+        <v>0.97374358974358977</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <f>MAX(Data!$C$2:$C$257)</f>
+        <v>1.5989609519021279</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>0.7552136752136752</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>1.339031339031339</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.011254778776146</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <f>MAX(Data!$E$2:$E$257)</f>
+        <v>1.0112547787761459</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>10112547.78776146</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="B13" s="3">
+        <f>(B12/((B8)*B9))</f>
+        <v>0.64949844738168394</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>0.1743542722027838</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="B14" s="3">
+        <f>(B12/B5)/B6</f>
+        <v>0.17435427220278377</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -565,14 +605,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E257"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
@@ -586,279 +626,279 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.004820512820512821</v>
+        <v>4.8205128205128208E-3</v>
       </c>
       <c r="C2">
-        <v>1.598960951902128</v>
+        <v>1.5989609519021279</v>
       </c>
       <c r="D2">
-        <v>27.56829227417463</v>
+        <v>27.568292274174631</v>
       </c>
       <c r="E2">
-        <v>0.007707811768143594</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>7.707811768143594E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.006427350427350428</v>
+        <v>6.4273504273504277E-3</v>
       </c>
       <c r="C3">
-        <v>1.598960951902128</v>
+        <v>1.5989609519021279</v>
       </c>
       <c r="D3">
-        <v>27.56829227417463</v>
+        <v>27.568292274174631</v>
       </c>
       <c r="E3">
-        <v>0.01027708235752479</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>1.0277082357524789E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.008034188034188034</v>
+        <v>8.0341880341880337E-3</v>
       </c>
       <c r="C4">
-        <v>1.598960951902128</v>
+        <v>1.5989609519021279</v>
       </c>
       <c r="D4">
-        <v>27.56829227417463</v>
+        <v>27.568292274174631</v>
       </c>
       <c r="E4">
-        <v>0.01284635294690599</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>1.284635294690599E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.01124786324786325</v>
+        <v>1.1247863247863249E-2</v>
       </c>
       <c r="C5">
-        <v>1.598960951902128</v>
+        <v>1.5989609519021279</v>
       </c>
       <c r="D5">
-        <v>27.56829227417463</v>
+        <v>27.568292274174631</v>
       </c>
       <c r="E5">
-        <v>0.01798489412566838</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>1.798489412566838E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.01446153846153846</v>
+        <v>1.446153846153846E-2</v>
       </c>
       <c r="C6">
-        <v>1.598960951902128</v>
+        <v>1.5989609519021279</v>
       </c>
       <c r="D6">
-        <v>27.56829227417463</v>
+        <v>27.568292274174631</v>
       </c>
       <c r="E6">
-        <v>0.02312343530443078</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>2.312343530443078E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.01928205128205128</v>
+        <v>1.928205128205128E-2</v>
       </c>
       <c r="C7">
-        <v>1.598960951902128</v>
+        <v>1.5989609519021279</v>
       </c>
       <c r="D7">
-        <v>27.56829227417463</v>
+        <v>27.568292274174631</v>
       </c>
       <c r="E7">
-        <v>0.03083124707257438</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>3.083124707257438E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0241025641025641</v>
+        <v>2.41025641025641E-2</v>
       </c>
       <c r="C8">
-        <v>1.598960951902128</v>
+        <v>1.5989609519021279</v>
       </c>
       <c r="D8">
-        <v>27.56829227417463</v>
+        <v>27.568292274174631</v>
       </c>
       <c r="E8">
-        <v>0.03853905884071797</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>3.8539058840717969E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.02892307692307692</v>
+        <v>2.8923076923076919E-2</v>
       </c>
       <c r="C9">
-        <v>1.598960951902128</v>
+        <v>1.5989609519021279</v>
       </c>
       <c r="D9">
-        <v>27.56829227417463</v>
+        <v>27.568292274174631</v>
       </c>
       <c r="E9">
-        <v>0.04624687060886156</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>4.6246870608861561E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.03695726495726496</v>
+        <v>3.6957264957264958E-2</v>
       </c>
       <c r="C10">
-        <v>1.598960951902128</v>
+        <v>1.5989609519021279</v>
       </c>
       <c r="D10">
-        <v>27.56829227417463</v>
+        <v>27.568292274174631</v>
       </c>
       <c r="E10">
-        <v>0.05909322355576755</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>5.909322355576755E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.0465982905982906</v>
+        <v>4.6598290598290598E-2</v>
       </c>
       <c r="C11">
-        <v>1.598960951902128</v>
+        <v>1.5989609519021279</v>
       </c>
       <c r="D11">
-        <v>27.56829227417463</v>
+        <v>27.568292274174631</v>
       </c>
       <c r="E11">
-        <v>0.07450884709205473</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>7.4508847092054728E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.05623931623931624</v>
+        <v>5.6239316239316238E-2</v>
       </c>
       <c r="C12">
-        <v>1.598960951902128</v>
+        <v>1.5989609519021279</v>
       </c>
       <c r="D12">
-        <v>27.56829227417463</v>
+        <v>27.568292274174631</v>
       </c>
       <c r="E12">
-        <v>0.08992447062834193</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>8.9924470628341927E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.06266666666666666</v>
+        <v>6.2666666666666662E-2</v>
       </c>
       <c r="C13">
-        <v>1.598960951902128</v>
+        <v>1.5989609519021279</v>
       </c>
       <c r="D13">
-        <v>27.56829227417463</v>
+        <v>27.568292274174631</v>
       </c>
       <c r="E13">
-        <v>0.1002015529858667</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.10020155298586669</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.0707008547008547</v>
+        <v>7.0700854700854701E-2</v>
       </c>
       <c r="C14">
-        <v>1.59108429696665</v>
+        <v>1.5910842969666501</v>
       </c>
       <c r="D14">
-        <v>27.43248787873534</v>
+        <v>27.432487878735341</v>
       </c>
       <c r="E14">
-        <v>0.1124910196966507</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.11249101969665069</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.08034188034188035</v>
+        <v>8.0341880341880348E-2</v>
       </c>
       <c r="C15">
-        <v>1.598960951902128</v>
+        <v>1.5989609519021279</v>
       </c>
       <c r="D15">
-        <v>27.56829227417463</v>
+        <v>27.568292274174631</v>
       </c>
       <c r="E15">
         <v>0.1284635294690599</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.08837606837606837</v>
+        <v>8.8376068376068373E-2</v>
       </c>
       <c r="C16">
-        <v>1.59108429696665</v>
+        <v>1.5910842969666501</v>
       </c>
       <c r="D16">
-        <v>27.43248787873534</v>
+        <v>27.432487878735341</v>
       </c>
       <c r="E16">
-        <v>0.1406137746208133</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.14061377462081329</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.0948034188034188</v>
+        <v>9.4803418803418804E-2</v>
       </c>
       <c r="C17">
-        <v>1.598960951902128</v>
+        <v>1.5989609519021279</v>
       </c>
       <c r="D17">
-        <v>27.56829227417463</v>
+        <v>27.568292274174631</v>
       </c>
       <c r="E17">
-        <v>0.1515869647734907</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>0.15158696477349071</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -866,16 +906,16 @@
         <v>0.1108717948717949</v>
       </c>
       <c r="C18">
-        <v>1.59108429696665</v>
+        <v>1.5910842969666501</v>
       </c>
       <c r="D18">
-        <v>27.43248787873534</v>
+        <v>27.432487878735341</v>
       </c>
       <c r="E18">
-        <v>0.1764063717970203</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>0.17640637179702029</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -883,50 +923,50 @@
         <v>0.1253333333333333</v>
       </c>
       <c r="C19">
-        <v>1.59108429696665</v>
+        <v>1.5910842969666501</v>
       </c>
       <c r="D19">
-        <v>27.43248787873534</v>
+        <v>27.432487878735341</v>
       </c>
       <c r="E19">
-        <v>0.1994158985531534</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.19941589855315339</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1381880341880342</v>
+        <v>0.13818803418803419</v>
       </c>
       <c r="C20">
-        <v>1.59108429696665</v>
+        <v>1.5910842969666501</v>
       </c>
       <c r="D20">
-        <v>27.43248787873534</v>
+        <v>27.432487878735341</v>
       </c>
       <c r="E20">
-        <v>0.2198688112252717</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.21986881122527169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1494358974358974</v>
+        <v>0.14943589743589741</v>
       </c>
       <c r="C21">
-        <v>1.59108429696665</v>
+        <v>1.5910842969666501</v>
       </c>
       <c r="D21">
-        <v>27.43248787873534</v>
+        <v>27.432487878735341</v>
       </c>
       <c r="E21">
-        <v>0.2377651098133753</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.23776510981337531</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -934,33 +974,33 @@
         <v>0.1606837606837607</v>
       </c>
       <c r="C22">
-        <v>1.59108429696665</v>
+        <v>1.5910842969666501</v>
       </c>
       <c r="D22">
-        <v>27.43248787873534</v>
+        <v>27.432487878735341</v>
       </c>
       <c r="E22">
-        <v>0.2556614084014788</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.25566140840147877</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.171931623931624</v>
+        <v>0.17193162393162401</v>
       </c>
       <c r="C23">
-        <v>1.59108429696665</v>
+        <v>1.5910842969666501</v>
       </c>
       <c r="D23">
-        <v>27.43248787873534</v>
+        <v>27.432487878735341</v>
       </c>
       <c r="E23">
-        <v>0.2735577069895823</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.27355770698958232</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -968,186 +1008,186 @@
         <v>0.1815726495726496</v>
       </c>
       <c r="C24">
-        <v>1.59108429696665</v>
+        <v>1.5910842969666501</v>
       </c>
       <c r="D24">
-        <v>27.43248787873534</v>
+        <v>27.432487878735341</v>
       </c>
       <c r="E24">
         <v>0.288897391493671</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.1912136752136752</v>
+        <v>0.19121367521367519</v>
       </c>
       <c r="C25">
-        <v>1.583207642031171</v>
+        <v>1.5832076420311709</v>
       </c>
       <c r="D25">
         <v>27.29668348329605</v>
       </c>
       <c r="E25">
-        <v>0.3027309518591569</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.30273095185915688</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.2040683760683761</v>
+        <v>0.20406837606837611</v>
       </c>
       <c r="C26">
-        <v>1.59108429696665</v>
+        <v>1.5910842969666501</v>
       </c>
       <c r="D26">
-        <v>27.43248787873534</v>
+        <v>27.432487878735341</v>
       </c>
       <c r="E26">
-        <v>0.324689988669878</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.32468998866987803</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.2153162393162393</v>
+        <v>0.21531623931623931</v>
       </c>
       <c r="C27">
-        <v>1.59108429696665</v>
+        <v>1.5910842969666501</v>
       </c>
       <c r="D27">
-        <v>27.43248787873534</v>
+        <v>27.432487878735341</v>
       </c>
       <c r="E27">
-        <v>0.3425862872579816</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>0.34258628725798163</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.224957264957265</v>
+        <v>0.22495726495726501</v>
       </c>
       <c r="C28">
-        <v>1.59108429696665</v>
+        <v>1.5910842969666501</v>
       </c>
       <c r="D28">
-        <v>27.43248787873534</v>
+        <v>27.432487878735341</v>
       </c>
       <c r="E28">
-        <v>0.3579259717620704</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.35792597176207042</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.2362051282051282</v>
+        <v>0.23620512820512821</v>
       </c>
       <c r="C29">
-        <v>1.59108429696665</v>
+        <v>1.5910842969666501</v>
       </c>
       <c r="D29">
-        <v>27.43248787873534</v>
+        <v>27.432487878735341</v>
       </c>
       <c r="E29">
-        <v>0.3758222703501738</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.37582227035017379</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.2458461538461539</v>
+        <v>0.24584615384615391</v>
       </c>
       <c r="C30">
-        <v>1.59108429696665</v>
+        <v>1.5910842969666501</v>
       </c>
       <c r="D30">
-        <v>27.43248787873534</v>
+        <v>27.432487878735341</v>
       </c>
       <c r="E30">
-        <v>0.3911619548542625</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.39116195485426247</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.2538803418803419</v>
+        <v>0.25388034188034192</v>
       </c>
       <c r="C31">
-        <v>1.59108429696665</v>
+        <v>1.5910842969666501</v>
       </c>
       <c r="D31">
-        <v>27.43248787873534</v>
+        <v>27.432487878735341</v>
       </c>
       <c r="E31">
-        <v>0.4039450252743366</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.40394502527433662</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.2635213675213676</v>
+        <v>0.26352136752136762</v>
       </c>
       <c r="C32">
-        <v>1.59108429696665</v>
+        <v>1.5910842969666501</v>
       </c>
       <c r="D32">
-        <v>27.43248787873534</v>
+        <v>27.432487878735341</v>
       </c>
       <c r="E32">
         <v>0.4192847097784253</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.2731623931623932</v>
+        <v>0.27316239316239321</v>
       </c>
       <c r="C33">
-        <v>1.583207642031171</v>
+        <v>1.5832076420311709</v>
       </c>
       <c r="D33">
         <v>27.29668348329605</v>
       </c>
       <c r="E33">
-        <v>0.4324727883702242</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.43247278837022418</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.2940512820512821</v>
+        <v>0.29405128205128211</v>
       </c>
       <c r="C34">
-        <v>1.583207642031171</v>
+        <v>1.5832076420311709</v>
       </c>
       <c r="D34">
         <v>27.29668348329605</v>
       </c>
       <c r="E34">
-        <v>0.4655442368926531</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.46554423689265312</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1155,67 +1195,67 @@
         <v>0.3133333333333333</v>
       </c>
       <c r="C35">
-        <v>1.575330987095693</v>
+        <v>1.5753309870956931</v>
       </c>
       <c r="D35">
         <v>27.16087908785677</v>
       </c>
       <c r="E35">
-        <v>0.4936037092899837</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.49360370928998371</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.331008547008547</v>
+        <v>0.33100854700854698</v>
       </c>
       <c r="C36">
-        <v>1.583207642031171</v>
+        <v>1.5832076420311709</v>
       </c>
       <c r="D36">
         <v>27.29668348329605</v>
       </c>
       <c r="E36">
-        <v>0.5240552612015659</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.52405526120156587</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.3470769230769231</v>
+        <v>0.34707692307692312</v>
       </c>
       <c r="C37">
-        <v>1.583207642031171</v>
+        <v>1.5832076420311709</v>
       </c>
       <c r="D37">
         <v>27.29668348329605</v>
       </c>
       <c r="E37">
-        <v>0.5494948369880496</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>0.54949483698804957</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.3631452991452991</v>
+        <v>0.36314529914529908</v>
       </c>
       <c r="C38">
-        <v>1.575330987095693</v>
+        <v>1.5753309870956931</v>
       </c>
       <c r="D38">
         <v>27.16087908785677</v>
       </c>
       <c r="E38">
-        <v>0.5720740425617248</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.57207404256172478</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1223,55 +1263,55 @@
         <v>0.376</v>
       </c>
       <c r="C39">
-        <v>1.575330987095693</v>
+        <v>1.5753309870956931</v>
       </c>
       <c r="D39">
         <v>27.16087908785677</v>
       </c>
       <c r="E39">
-        <v>0.5923244511479805</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.59232445114798049</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.3888547008547009</v>
+        <v>0.38885470085470092</v>
       </c>
       <c r="C40">
-        <v>1.575330987095693</v>
+        <v>1.5753309870956931</v>
       </c>
       <c r="D40">
         <v>27.16087908785677</v>
       </c>
       <c r="E40">
-        <v>0.6125748597342363</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.61257485973423631</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.4017094017094017</v>
+        <v>0.40170940170940173</v>
       </c>
       <c r="C41">
-        <v>1.575330987095693</v>
+        <v>1.5753309870956931</v>
       </c>
       <c r="D41">
         <v>27.16087908785677</v>
       </c>
       <c r="E41">
-        <v>0.632825268320492</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.63282526832049202</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.4145641025641026</v>
+        <v>0.41456410256410259</v>
       </c>
       <c r="C42">
         <v>1.567454332160215</v>
@@ -1280,66 +1320,66 @@
         <v>27.02507469241749</v>
       </c>
       <c r="E42">
-        <v>0.6498102985222142</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>0.64981029852221417</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.4274188034188034</v>
+        <v>0.42741880341880339</v>
       </c>
       <c r="C43">
-        <v>1.575330987095693</v>
+        <v>1.5753309870956931</v>
       </c>
       <c r="D43">
         <v>27.16087908785677</v>
       </c>
       <c r="E43">
-        <v>0.6733260854930034</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.67332608549300343</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.4386666666666666</v>
+        <v>0.43866666666666659</v>
       </c>
       <c r="C44">
-        <v>1.575330987095693</v>
+        <v>1.5753309870956931</v>
       </c>
       <c r="D44">
         <v>27.16087908785677</v>
       </c>
       <c r="E44">
-        <v>0.6910451930059772</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.69104519300597722</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.44991452991453</v>
+        <v>0.44991452991453001</v>
       </c>
       <c r="C45">
-        <v>1.575330987095693</v>
+        <v>1.5753309870956931</v>
       </c>
       <c r="D45">
         <v>27.16087908785677</v>
       </c>
       <c r="E45">
-        <v>0.7087643005189511</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>0.70876430051895112</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.4595555555555556</v>
+        <v>0.45955555555555561</v>
       </c>
       <c r="C46">
         <v>1.567454332160215</v>
@@ -1348,15 +1388,15 @@
         <v>27.02507469241749</v>
       </c>
       <c r="E46">
-        <v>0.7203323464238499</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.72033234642384991</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.4708034188034188</v>
+        <v>0.47080341880341881</v>
       </c>
       <c r="C47">
         <v>1.567454332160215</v>
@@ -1365,15 +1405,15 @@
         <v>27.02507469241749</v>
       </c>
       <c r="E47">
-        <v>0.7379628583992587</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.73796285839925868</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.4804444444444445</v>
+        <v>0.48044444444444451</v>
       </c>
       <c r="C48">
         <v>1.567454332160215</v>
@@ -1382,10 +1422,10 @@
         <v>27.02507469241749</v>
       </c>
       <c r="E48">
-        <v>0.7530747258067521</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.75307472580675205</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1399,32 +1439,32 @@
         <v>27.02507469241749</v>
       </c>
       <c r="E49">
-        <v>0.7681865932142454</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>0.76818659321424543</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.502940170940171</v>
+        <v>0.50294017094017096</v>
       </c>
       <c r="C50">
-        <v>1.559577677224736</v>
+        <v>1.5595776772247361</v>
       </c>
       <c r="D50">
         <v>26.8892702969782</v>
       </c>
       <c r="E50">
-        <v>0.7843742635778834</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.78437426357788342</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.5174017094017095</v>
+        <v>0.51740170940170949</v>
       </c>
       <c r="C51">
         <v>1.551701022289258</v>
@@ -1433,15 +1473,15 @@
         <v>26.75346590153892</v>
       </c>
       <c r="E51">
-        <v>0.802852761412842</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.80285276141284201</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.5302564102564102</v>
+        <v>0.53025641025641024</v>
       </c>
       <c r="C52">
         <v>1.551701022289258</v>
@@ -1450,15 +1490,15 @@
         <v>26.75346590153892</v>
       </c>
       <c r="E52">
-        <v>0.8227994138703038</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>0.82279941387030375</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.5398974358974359</v>
+        <v>0.53989743589743588</v>
       </c>
       <c r="C53">
         <v>1.543824367353779</v>
@@ -1467,15 +1507,15 @@
         <v>26.61766150609964</v>
       </c>
       <c r="E53">
-        <v>0.8335068174102865</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.83350681741028654</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.5511452991452992</v>
+        <v>0.55114529914529919</v>
       </c>
       <c r="C54">
         <v>1.543824367353779</v>
@@ -1484,15 +1524,15 @@
         <v>26.61766150609964</v>
       </c>
       <c r="E54">
-        <v>0.8508715427730009</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.85087154277300092</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.5623931623931624</v>
+        <v>0.56239316239316239</v>
       </c>
       <c r="C55">
         <v>1.535947712418301</v>
@@ -1501,15 +1541,15 @@
         <v>26.48185711066035</v>
       </c>
       <c r="E55">
-        <v>0.8638064912574716</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.86380649125747155</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.572034188034188</v>
+        <v>0.57203418803418804</v>
       </c>
       <c r="C56">
         <v>1.535947712418301</v>
@@ -1518,15 +1558,15 @@
         <v>26.48185711066035</v>
       </c>
       <c r="E56">
-        <v>0.8786146025361711</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.87861460253617107</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.5800683760683761</v>
+        <v>0.58006837606837613</v>
       </c>
       <c r="C57">
         <v>1.535947712418301</v>
@@ -1535,15 +1575,15 @@
         <v>26.48185711066035</v>
       </c>
       <c r="E57">
-        <v>0.8909546952684207</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>0.89095469526842075</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.5897094017094018</v>
+        <v>0.58970940170940178</v>
       </c>
       <c r="C58">
         <v>1.528071057482822</v>
@@ -1552,32 +1592,32 @@
         <v>26.34605271522107</v>
       </c>
       <c r="E58">
-        <v>0.901117869077648</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.90111786907764801</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.600957264957265</v>
+        <v>0.60095726495726498</v>
       </c>
       <c r="C59">
-        <v>1.520194402547344</v>
+        <v>1.5201944025473439</v>
       </c>
       <c r="D59">
         <v>26.21024831978179</v>
       </c>
       <c r="E59">
-        <v>0.9135718703581953</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.91357187035819531</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.6089914529914531</v>
+        <v>0.60899145299145307</v>
       </c>
       <c r="C60">
         <v>1.512317747611865</v>
@@ -1586,10 +1626,10 @@
         <v>26.0744439243425</v>
       </c>
       <c r="E60">
-        <v>0.9209885825029114</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.92098858250291138</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -1606,46 +1646,46 @@
         <v>0.930708778624314</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.6234529914529915</v>
+        <v>0.62345299145299149</v>
       </c>
       <c r="C62">
-        <v>1.504441092676387</v>
+        <v>1.5044410926763869</v>
       </c>
       <c r="D62">
         <v>25.93863952890322</v>
       </c>
       <c r="E62">
-        <v>0.9379482996939006</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>0.93794829969390059</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.6314871794871795</v>
+        <v>0.63148717948717947</v>
       </c>
       <c r="C63">
-        <v>1.504441092676387</v>
+        <v>1.5044410926763869</v>
       </c>
       <c r="D63">
         <v>25.93863952890322</v>
       </c>
       <c r="E63">
-        <v>0.950035262318822</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.95003526231882196</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.63791452991453</v>
+        <v>0.63791452991453002</v>
       </c>
       <c r="C64">
         <v>1.496564437740908</v>
@@ -1654,49 +1694,49 @@
         <v>25.80283513346394</v>
       </c>
       <c r="E64">
-        <v>0.9546801997882945</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.95468019978829455</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.6459487179487179</v>
+        <v>0.64594871794871789</v>
       </c>
       <c r="C65">
-        <v>1.48868778280543</v>
+        <v>1.4886877828054299</v>
       </c>
       <c r="D65">
         <v>25.66703073802465</v>
       </c>
       <c r="E65">
-        <v>0.9616159647290868</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.96161596472908684</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.6555897435897435</v>
+        <v>0.65558974358974353</v>
       </c>
       <c r="C66">
-        <v>1.480811127869951</v>
+        <v>1.4808111278699509</v>
       </c>
       <c r="D66">
         <v>25.53122634258537</v>
       </c>
       <c r="E66">
-        <v>0.9708045876251004</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.97080458762510036</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.6652307692307692</v>
+        <v>0.66523076923076918</v>
       </c>
       <c r="C67">
         <v>1.465057817998995</v>
@@ -1705,32 +1745,32 @@
         <v>25.2596175517068</v>
       </c>
       <c r="E67">
-        <v>0.9746015392350235</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.97460153923502346</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.6732649572649573</v>
+        <v>0.67326495726495728</v>
       </c>
       <c r="C68">
-        <v>1.457181163063516</v>
+        <v>1.4571811630635161</v>
       </c>
       <c r="D68">
-        <v>25.12381315626751</v>
+        <v>25.123813156267509</v>
       </c>
       <c r="E68">
-        <v>0.9810690134772587</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.98106901347725872</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.6812991452991454</v>
+        <v>0.68129914529914537</v>
       </c>
       <c r="C69">
         <v>1.449304508128038</v>
@@ -1739,10 +1779,10 @@
         <v>24.98800876082824</v>
       </c>
       <c r="E69">
-        <v>0.9874099226658304</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.98740992266583039</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -1750,55 +1790,55 @@
         <v>0.6877264957264958</v>
       </c>
       <c r="C70">
-        <v>1.441427853192559</v>
+        <v>1.4414278531925591</v>
       </c>
       <c r="D70">
         <v>24.85220436538895</v>
       </c>
       <c r="E70">
-        <v>0.9913081263186845</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>0.99130812631868448</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.6941538461538461</v>
+        <v>0.69415384615384612</v>
       </c>
       <c r="C71">
         <v>1.433551198257081</v>
       </c>
       <c r="D71">
-        <v>24.71639996994966</v>
+        <v>24.716399969949659</v>
       </c>
       <c r="E71">
-        <v>0.9951050779286073</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.99510507792860725</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.7021880341880342</v>
+        <v>0.70218803418803422</v>
       </c>
       <c r="C72">
         <v>1.425674543321602</v>
       </c>
       <c r="D72">
-        <v>24.58059557451038</v>
+        <v>24.580595574510379</v>
       </c>
       <c r="E72">
         <v>1.001091604966919</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.7086153846153846</v>
+        <v>0.70861538461538465</v>
       </c>
       <c r="C73">
         <v>1.417797888386124</v>
@@ -1807,95 +1847,95 @@
         <v>24.4447911790711</v>
       </c>
       <c r="E73">
-        <v>1.004673395985613</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>1.0046733959856129</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.7134358974358974</v>
+        <v>0.71343589743589741</v>
       </c>
       <c r="C74">
         <v>1.402044578515167</v>
       </c>
       <c r="D74">
-        <v>24.17318238819253</v>
+        <v>24.173182388192529</v>
       </c>
       <c r="E74">
         <v>1.000268932118102</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.7198632478632478</v>
+        <v>0.71986324786324785</v>
       </c>
       <c r="C75">
         <v>1.394167923579688</v>
       </c>
       <c r="D75">
-        <v>24.03737799275324</v>
+        <v>24.037377992753239</v>
       </c>
       <c r="E75">
-        <v>1.003610249534835</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>1.0036102495348349</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.7246837606837606</v>
+        <v>0.72468376068376061</v>
       </c>
       <c r="C76">
-        <v>1.38629126864421</v>
+        <v>1.3862912686442099</v>
       </c>
       <c r="D76">
-        <v>23.90157359731396</v>
+        <v>23.901573597313959</v>
       </c>
       <c r="E76">
         <v>1.004622769964147</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.7311111111111112</v>
+        <v>0.73111111111111116</v>
       </c>
       <c r="C77">
         <v>1.378414613708731</v>
       </c>
       <c r="D77">
-        <v>23.76576920187468</v>
+        <v>23.765769201874679</v>
       </c>
       <c r="E77">
-        <v>1.007774239800383</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>1.0077742398003831</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.7359316239316239</v>
+        <v>0.73593162393162392</v>
       </c>
       <c r="C78">
-        <v>1.370537958773253</v>
+        <v>1.3705379587732529</v>
       </c>
       <c r="D78">
-        <v>23.62996480643539</v>
+        <v>23.629964806435389</v>
       </c>
       <c r="E78">
-        <v>1.008622225659933</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>1.0086222256599331</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -1906,64 +1946,64 @@
         <v>1.362661303837774</v>
       </c>
       <c r="D79">
-        <v>23.49416041099611</v>
+        <v>23.494160410996109</v>
       </c>
       <c r="E79">
         <v>1.009394272487284</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.7455726495726496</v>
+        <v>0.74557264957264957</v>
       </c>
       <c r="C80">
-        <v>1.354784648902296</v>
+        <v>1.3547846489022961</v>
       </c>
       <c r="D80">
-        <v>23.35835601555682</v>
+        <v>23.358356015556819</v>
       </c>
       <c r="E80">
-        <v>1.010090380282436</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>1.0100903802824359</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.7487863247863248</v>
+        <v>0.74878632478632479</v>
       </c>
       <c r="C81">
         <v>1.346907993966818</v>
       </c>
       <c r="D81">
-        <v>23.22255162011754</v>
+        <v>23.222551620117539</v>
       </c>
       <c r="E81">
         <v>1.008546286627735</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.7552136752136752</v>
+        <v>0.75521367521367522</v>
       </c>
       <c r="C82">
-        <v>1.339031339031339</v>
+        <v>1.3390313390313391</v>
       </c>
       <c r="D82">
-        <v>23.08674722467826</v>
+        <v>23.086747224678259</v>
       </c>
       <c r="E82">
-        <v>1.011254778776146</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>1.0112547787761459</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -1971,203 +2011,203 @@
         <v>0.7600341880341881</v>
       </c>
       <c r="C83">
-        <v>1.323278029160382</v>
+        <v>1.3232780291603821</v>
       </c>
       <c r="D83">
-        <v>22.81513843379969</v>
+        <v>22.815138433799689</v>
       </c>
       <c r="E83">
         <v>1.005736542436392</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.7664615384615384</v>
+        <v>0.76646153846153842</v>
       </c>
       <c r="C84">
         <v>1.315401374224904</v>
       </c>
       <c r="D84">
-        <v>22.67933403836041</v>
+        <v>22.679334038360409</v>
       </c>
       <c r="E84">
-        <v>1.008204560982841</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>1.0082045609828409</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.7696752136752137</v>
+        <v>0.76967521367521374</v>
       </c>
       <c r="C85">
         <v>1.299648064353947</v>
       </c>
       <c r="D85">
-        <v>22.40772524748184</v>
+        <v>22.407725247481839</v>
       </c>
       <c r="E85">
-        <v>1.000306901634202</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>1.0003069016342021</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.7728888888888888</v>
+        <v>0.77288888888888885</v>
       </c>
       <c r="C86">
         <v>1.291771409418468</v>
       </c>
       <c r="D86">
-        <v>22.27192085204256</v>
+        <v>22.271920852042559</v>
       </c>
       <c r="E86">
-        <v>0.998395769323874</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.99839576932387397</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.7777094017094017</v>
+        <v>0.77770940170940173</v>
       </c>
       <c r="C87">
         <v>1.28389475448299</v>
       </c>
       <c r="D87">
-        <v>22.13611645660327</v>
+        <v>22.136116456603268</v>
       </c>
       <c r="E87">
-        <v>0.9984970213668052</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.99849702136680518</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.7809230769230769</v>
+        <v>0.78092307692307694</v>
       </c>
       <c r="C88">
-        <v>1.268141444612033</v>
+        <v>1.2681414446120329</v>
       </c>
       <c r="D88">
-        <v>21.86450766572471</v>
+        <v>21.864507665724709</v>
       </c>
       <c r="E88">
-        <v>0.9903209189001045</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.99032091890010454</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.7841367521367522</v>
+        <v>0.78413675213675216</v>
       </c>
       <c r="C89">
-        <v>1.268141444612033</v>
+        <v>1.2681414446120329</v>
       </c>
       <c r="D89">
-        <v>21.86450766572471</v>
+        <v>21.864507665724709</v>
       </c>
       <c r="E89">
-        <v>0.9943963136280884</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.99439631362808845</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.788957264957265</v>
+        <v>0.78895726495726504</v>
       </c>
       <c r="C90">
-        <v>1.252388134741076</v>
+        <v>1.2523881347410759</v>
       </c>
       <c r="D90">
-        <v>21.59289887484614</v>
+        <v>21.592898874846139</v>
       </c>
       <c r="E90">
-        <v>0.9880807174502499</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.98808071745024995</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.7921709401709401</v>
+        <v>0.79217094017094014</v>
       </c>
       <c r="C91">
-        <v>1.244511479805598</v>
+        <v>1.2445114798055981</v>
       </c>
       <c r="D91">
-        <v>21.45709447940686</v>
+        <v>21.457094479406859</v>
       </c>
       <c r="E91">
-        <v>0.9858658290111283</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.98586582901112829</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.7953846153846154</v>
+        <v>0.79538461538461536</v>
       </c>
       <c r="C92">
-        <v>1.236634824870119</v>
+        <v>1.2366348248701191</v>
       </c>
       <c r="D92">
-        <v>21.32129008396756</v>
+        <v>21.321290083967561</v>
       </c>
       <c r="E92">
-        <v>0.9836003145505405</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.98360031455054053</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.7985982905982907</v>
+        <v>0.79859829059829068</v>
       </c>
       <c r="C93">
         <v>1.228758169934641</v>
       </c>
       <c r="D93">
-        <v>21.18548568852828</v>
+        <v>21.185485688528281</v>
       </c>
       <c r="E93">
         <v>0.981284174068488</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.8018119658119658</v>
+        <v>0.80181196581196579</v>
       </c>
       <c r="C94">
-        <v>1.220881514999162</v>
+        <v>1.2208815149991621</v>
       </c>
       <c r="D94">
-        <v>21.049681293089</v>
+        <v>21.049681293089002</v>
       </c>
       <c r="E94">
-        <v>0.9789174075649689</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.97891740756496892</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -2178,47 +2218,47 @@
         <v>1.213004860063684</v>
       </c>
       <c r="D95">
-        <v>20.91387689764971</v>
+        <v>20.913876897649711</v>
       </c>
       <c r="E95">
-        <v>0.9765000150399848</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.97650001503998485</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.8066324786324786</v>
+        <v>0.80663247863247856</v>
       </c>
       <c r="C96">
-        <v>1.205128205128205</v>
+        <v>1.2051282051282051</v>
       </c>
       <c r="D96">
-        <v>20.77807250221043</v>
+        <v>20.778072502210431</v>
       </c>
       <c r="E96">
-        <v>0.9720955511724743</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <v>0.97209555117247426</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.8098461538461539</v>
+        <v>0.80984615384615388</v>
       </c>
       <c r="C97">
         <v>1.197251550192727</v>
       </c>
       <c r="D97">
-        <v>20.64226810677115</v>
+        <v>20.642268106771152</v>
       </c>
       <c r="E97">
-        <v>0.9695895631099253</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>0.96958956310992528</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -2229,47 +2269,47 @@
         <v>1.18149824032177</v>
       </c>
       <c r="D98">
-        <v>20.37065931589258</v>
+        <v>20.370659315892581</v>
       </c>
       <c r="E98">
-        <v>0.9606287573105072</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.96062875731050723</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.817880341880342</v>
+        <v>0.81788034188034198</v>
       </c>
       <c r="C99">
         <v>1.157868275515334</v>
       </c>
       <c r="D99">
-        <v>19.96324612957473</v>
+        <v>19.963246129574731</v>
       </c>
       <c r="E99">
-        <v>0.9469977010308838</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>0.94699770103088377</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.8210940170940171</v>
+        <v>0.82109401709401708</v>
       </c>
       <c r="C100">
-        <v>1.149991620579856</v>
+        <v>1.1499916205798559</v>
       </c>
       <c r="D100">
-        <v>19.82744173413545</v>
+        <v>19.827441734135451</v>
       </c>
       <c r="E100">
-        <v>0.9442512393663727</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+        <v>0.94425123936637267</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -2277,106 +2317,106 @@
         <v>0.8243076923076923</v>
       </c>
       <c r="C101">
-        <v>1.134238310708899</v>
+        <v>1.1342383107088989</v>
       </c>
       <c r="D101">
-        <v>19.55583294325688</v>
+        <v>19.555832943256881</v>
       </c>
       <c r="E101">
-        <v>0.9349613644274277</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.93496136442742772</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.8275213675213675</v>
+        <v>0.82752136752136751</v>
       </c>
       <c r="C102">
-        <v>1.126361655773421</v>
+        <v>1.1263616557734211</v>
       </c>
       <c r="D102">
-        <v>19.42002854781759</v>
+        <v>19.420028547817591</v>
       </c>
       <c r="E102">
-        <v>0.9320883377092528</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.93208833770925281</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.8291282051282052</v>
+        <v>0.82912820512820518</v>
       </c>
       <c r="C103">
-        <v>1.110608345902463</v>
+        <v>1.1106083459024629</v>
       </c>
       <c r="D103">
         <v>19.14841975693902</v>
       </c>
       <c r="E103">
-        <v>0.9208367044385143</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>0.92083670443851429</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.8323418803418804</v>
+        <v>0.83234188034188039</v>
       </c>
       <c r="C104">
-        <v>1.102731690966985</v>
+        <v>1.1027316909669851</v>
       </c>
       <c r="D104">
-        <v>19.01261536149974</v>
+        <v>19.012615361499741</v>
       </c>
       <c r="E104">
-        <v>0.9178497691720418</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
+        <v>0.91784976917204175</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.8339487179487179</v>
+        <v>0.83394871794871794</v>
       </c>
       <c r="C105">
         <v>1.094855036031507</v>
       </c>
       <c r="D105">
-        <v>18.87681096606046</v>
+        <v>18.876810966060461</v>
       </c>
       <c r="E105">
-        <v>0.9130529536381723</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
+        <v>0.91305295363817229</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.8371623931623932</v>
+        <v>0.83716239316239316</v>
       </c>
       <c r="C106">
-        <v>1.086978381096028</v>
+        <v>1.0869783810960281</v>
       </c>
       <c r="D106">
         <v>18.74100657062117</v>
       </c>
       <c r="E106">
-        <v>0.9099774228341346</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
+        <v>0.90997742283413463</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.8387692307692308</v>
+        <v>0.83876923076923082</v>
       </c>
       <c r="C107">
         <v>1.071225071225071</v>
@@ -2385,15 +2425,15 @@
         <v>18.4693977797426</v>
       </c>
       <c r="E107">
-        <v>0.8985106289721674</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
+        <v>0.89851062897216738</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.841982905982906</v>
+        <v>0.84198290598290604</v>
       </c>
       <c r="C108">
         <v>1.063348416289593</v>
@@ -2405,12 +2445,12 @@
         <v>0.8953211896198322</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.8435897435897436</v>
+        <v>0.84358974358974359</v>
       </c>
       <c r="C109">
         <v>1.063348416289593</v>
@@ -2419,15 +2459,15 @@
         <v>18.33359338430332</v>
       </c>
       <c r="E109">
-        <v>0.8970298178442975</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
+        <v>0.89702981784429747</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.8451965811965811</v>
+        <v>0.84519658119658114</v>
       </c>
       <c r="C110">
         <v>1.047595106418636</v>
@@ -2436,15 +2476,15 @@
         <v>18.06198459342475</v>
       </c>
       <c r="E110">
-        <v>0.8854238024232995</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
+        <v>0.88542380242329954</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.8468034188034188</v>
+        <v>0.84680341880341881</v>
       </c>
       <c r="C111">
         <v>1.047595106418636</v>
@@ -2453,15 +2493,15 @@
         <v>18.06198459342475</v>
       </c>
       <c r="E111">
-        <v>0.8871071176370321</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
+        <v>0.88710711763703209</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.8484102564102565</v>
+        <v>0.84841025641025647</v>
       </c>
       <c r="C112">
         <v>1.039718451483157</v>
@@ -2470,32 +2510,32 @@
         <v>17.92618019798547</v>
       </c>
       <c r="E112">
-        <v>0.8821077980173004</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
+        <v>0.88210779801730044</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.850017094017094</v>
+        <v>0.85001709401709402</v>
       </c>
       <c r="C113">
-        <v>1.031841796547679</v>
+        <v>1.0318417965476789</v>
       </c>
       <c r="D113">
         <v>17.79037580254619</v>
       </c>
       <c r="E113">
-        <v>0.8770831653868356</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
+        <v>0.87708316538683562</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.8532307692307692</v>
+        <v>0.85323076923076924</v>
       </c>
       <c r="C114">
         <v>1.0239651416122</v>
@@ -2504,129 +2544,129 @@
         <v>17.6545714071069</v>
       </c>
       <c r="E114">
-        <v>0.8736785654432713</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
+        <v>0.87367856544327127</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.8548376068376068</v>
+        <v>0.85483760683760679</v>
       </c>
       <c r="C115">
-        <v>1.016088486676722</v>
+        <v>1.0160884866767219</v>
       </c>
       <c r="D115">
         <v>17.51876701166762</v>
       </c>
       <c r="E115">
-        <v>0.8685906502859745</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
+        <v>0.86859065028597449</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.8564444444444445</v>
+        <v>0.85644444444444445</v>
       </c>
       <c r="C116">
-        <v>1.008211831741244</v>
+        <v>1.0082118317412441</v>
       </c>
       <c r="D116">
         <v>17.38296261622834</v>
       </c>
       <c r="E116">
-        <v>0.8634774221179451</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
+        <v>0.86347742211794509</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.8580512820512821</v>
+        <v>0.85805128205128212</v>
       </c>
       <c r="C117">
-        <v>1.000335176805765</v>
+        <v>1.0003351768057649</v>
       </c>
       <c r="D117">
         <v>17.24715822078905</v>
       </c>
       <c r="E117">
-        <v>0.8583388809391825</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
+        <v>0.85833888093918254</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.8596581196581197</v>
+        <v>0.85965811965811967</v>
       </c>
       <c r="C118">
-        <v>0.9924585218702867</v>
+        <v>0.99245852187028671</v>
       </c>
       <c r="D118">
         <v>17.11135382534977</v>
       </c>
       <c r="E118">
-        <v>0.8531750267496875</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
+        <v>0.85317502674968748</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.8612649572649573</v>
+        <v>0.86126495726495733</v>
       </c>
       <c r="C119">
-        <v>0.984581866934808</v>
+        <v>0.98458186693480798</v>
       </c>
       <c r="D119">
         <v>16.97554942991048</v>
       </c>
       <c r="E119">
-        <v>0.8479858595494593</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
+        <v>0.84798585954945926</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.8628717948717949</v>
+        <v>0.86287179487179488</v>
       </c>
       <c r="C120">
-        <v>0.9767052119993296</v>
+        <v>0.97670521199932958</v>
       </c>
       <c r="D120">
         <v>16.8397450344712</v>
       </c>
       <c r="E120">
-        <v>0.8427713793384984</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
+        <v>0.84277137933849844</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.8628717948717949</v>
+        <v>0.86287179487179488</v>
       </c>
       <c r="C121">
-        <v>0.9688285570638512</v>
+        <v>0.96882855706385118</v>
       </c>
       <c r="D121">
         <v>16.70394063903192</v>
       </c>
       <c r="E121">
-        <v>0.8359748359567364</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
+        <v>0.83597483595673638</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -2634,339 +2674,339 @@
         <v>0.8660854700854701</v>
       </c>
       <c r="C122">
-        <v>0.9609519021283728</v>
+        <v>0.96095190212837278</v>
       </c>
       <c r="D122">
         <v>16.56813624359263</v>
       </c>
       <c r="E122">
-        <v>0.8322664798843784</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
+        <v>0.83226647988437841</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.8676923076923077</v>
+        <v>0.86769230769230765</v>
       </c>
       <c r="C123">
-        <v>0.9530752471928943</v>
+        <v>0.95307524719289427</v>
       </c>
       <c r="D123">
         <v>16.43233184815335</v>
       </c>
       <c r="E123">
-        <v>0.826976060641219</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
+        <v>0.82697606064121898</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.8676923076923077</v>
+        <v>0.86769230769230765</v>
       </c>
       <c r="C124">
-        <v>0.9451985922574158</v>
+        <v>0.94519859225741576</v>
       </c>
       <c r="D124">
-        <v>16.29652745271406</v>
+        <v>16.296527452714059</v>
       </c>
       <c r="E124">
-        <v>0.8201415477433577</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
+        <v>0.82014154774335768</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.8692991452991453</v>
+        <v>0.86929914529914531</v>
       </c>
       <c r="C125">
-        <v>0.9451985922574158</v>
+        <v>0.94519859225741576</v>
       </c>
       <c r="D125">
-        <v>16.29652745271406</v>
+        <v>16.296527452714059</v>
       </c>
       <c r="E125">
-        <v>0.8216603283873268</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
+        <v>0.82166032838732683</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.870905982905983</v>
+        <v>0.87090598290598298</v>
       </c>
       <c r="C126">
-        <v>0.9373219373219374</v>
+        <v>0.93732193732193736</v>
       </c>
       <c r="D126">
         <v>16.16072305727478</v>
       </c>
       <c r="E126">
-        <v>0.8163192831227021</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
+        <v>0.81631928312270208</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.870905982905983</v>
+        <v>0.87090598290598298</v>
       </c>
       <c r="C127">
-        <v>0.9294452823864588</v>
+        <v>0.92944528238645885</v>
       </c>
       <c r="D127">
         <v>16.0249186618355</v>
       </c>
       <c r="E127">
-        <v>0.8094594572141078</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
+        <v>0.80945945721410784</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.8725128205128205</v>
+        <v>0.87251282051282053</v>
       </c>
       <c r="C128">
-        <v>0.9294452823864588</v>
+        <v>0.92944528238645885</v>
       </c>
       <c r="D128">
         <v>16.0249186618355</v>
       </c>
       <c r="E128">
-        <v>0.8109529248473442</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
+        <v>0.81095292484734416</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.8741196581196581</v>
+        <v>0.87411965811965808</v>
       </c>
       <c r="C129">
-        <v>0.9215686274509803</v>
+        <v>0.92156862745098034</v>
       </c>
       <c r="D129">
-        <v>15.88911426639621</v>
+        <v>15.889114266396209</v>
       </c>
       <c r="E129">
-        <v>0.8055612535612535</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
+        <v>0.80556125356125352</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.8853675213675214</v>
+        <v>0.88536752136752139</v>
       </c>
       <c r="C130">
-        <v>0.7719121836768896</v>
+        <v>0.77191218367688963</v>
       </c>
       <c r="D130">
         <v>13.30883075304982</v>
       </c>
       <c r="E130">
-        <v>0.6834259767753986</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
+        <v>0.68342597677539862</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.8966153846153846</v>
+        <v>0.89661538461538459</v>
       </c>
       <c r="C131">
-        <v>0.6537623596447125</v>
+        <v>0.65376235964471252</v>
       </c>
       <c r="D131">
-        <v>11.27176482146056</v>
+        <v>11.271764821460559</v>
       </c>
       <c r="E131">
-        <v>0.5861733895399053</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
+        <v>0.58617338953990528</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.9062564102564102</v>
+        <v>0.90625641025641024</v>
       </c>
       <c r="C132">
-        <v>0.543489190548014</v>
+        <v>0.54348919054801403</v>
       </c>
       <c r="D132">
         <v>9.370503285310587</v>
       </c>
       <c r="E132">
-        <v>0.4925405628392053</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
+        <v>0.49254056283920528</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.9126837606837607</v>
+        <v>0.91268376068376067</v>
       </c>
       <c r="C133">
-        <v>0.456845986257751</v>
+        <v>0.45684598625775102</v>
       </c>
       <c r="D133">
-        <v>7.876654935478465</v>
+        <v>7.8766549354784647</v>
       </c>
       <c r="E133">
         <v>0.4169559127910058</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.9191111111111112</v>
+        <v>0.91911111111111121</v>
       </c>
       <c r="C134">
-        <v>0.3859560918384448</v>
+        <v>0.38595609183844481</v>
       </c>
       <c r="D134">
-        <v>6.65441537652491</v>
+        <v>6.6544153765249101</v>
       </c>
       <c r="E134">
-        <v>0.3547365324097351</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
+        <v>0.35473653240973507</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.9255384615384615</v>
+        <v>0.92553846153846153</v>
       </c>
       <c r="C135">
-        <v>0.3308195072900955</v>
+        <v>0.33081950729009552</v>
       </c>
       <c r="D135">
-        <v>5.703784608449922</v>
+        <v>5.7037846084499222</v>
       </c>
       <c r="E135">
-        <v>0.3061861778241869</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
+        <v>0.30618617782418689</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.9303589743589744</v>
+        <v>0.93035897435897441</v>
       </c>
       <c r="C136">
-        <v>0.2756829227417463</v>
+        <v>0.27568292274174627</v>
       </c>
       <c r="D136">
-        <v>4.753153840374935</v>
+        <v>4.7531538403749352</v>
       </c>
       <c r="E136">
-        <v>0.2564840812502954</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
+        <v>0.25648408125029543</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.9351794871794872</v>
+        <v>0.93517948717948718</v>
       </c>
       <c r="C137">
-        <v>0.2362996480643539</v>
+        <v>0.23629964806435391</v>
       </c>
       <c r="D137">
-        <v>4.074131863178516</v>
+        <v>4.0741318631785157</v>
       </c>
       <c r="E137">
-        <v>0.2209825836975158</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
+        <v>0.22098258369751581</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.9383931623931625</v>
+        <v>0.93839316239316251</v>
       </c>
       <c r="C138">
-        <v>0.1969163733869616</v>
+        <v>0.19691637338696161</v>
       </c>
       <c r="D138">
-        <v>3.395109885982096</v>
+        <v>3.3951098859820958</v>
       </c>
       <c r="E138">
-        <v>0.1847849783495837</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
+        <v>0.18478497834958371</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.9416068376068376</v>
+        <v>0.94160683760683761</v>
       </c>
       <c r="C139">
-        <v>0.1654097536450478</v>
+        <v>0.16540975364504781</v>
       </c>
       <c r="D139">
-        <v>2.851892304224961</v>
+        <v>2.8518923042249611</v>
       </c>
       <c r="E139">
-        <v>0.1557509550390395</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
+        <v>0.15575095503903949</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.9448205128205128</v>
+        <v>0.94482051282051283</v>
       </c>
       <c r="C140">
-        <v>0.1417797888386124</v>
+        <v>0.14177978883861239</v>
       </c>
       <c r="D140">
-        <v>2.44447911790711</v>
+        <v>2.4444791179071101</v>
       </c>
       <c r="E140">
-        <v>0.1339564527980817</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
+        <v>0.13395645279808169</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.9464273504273504</v>
+        <v>0.94642735042735038</v>
       </c>
       <c r="C141">
         <v>0.118149824032177</v>
       </c>
       <c r="D141">
-        <v>2.037065931589258</v>
+        <v>2.0370659315892579</v>
       </c>
       <c r="E141">
         <v>0.1118202249122309</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -2980,146 +3020,146 @@
         <v>1.76545714071069</v>
       </c>
       <c r="E142">
-        <v>0.09723993073012684</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5">
+        <v>9.7239930730126836E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.9512478632478633</v>
+        <v>0.95124786324786326</v>
       </c>
       <c r="C143">
-        <v>0.08664320429026312</v>
+        <v>8.6643204290263121E-2</v>
       </c>
       <c r="D143">
-        <v>1.493848349832123</v>
+        <v>1.4938483498321229</v>
       </c>
       <c r="E143">
-        <v>0.08241916294606089</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5">
+        <v>8.2419162946060887E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.9528547008547009</v>
+        <v>0.95285470085470092</v>
       </c>
       <c r="C144">
-        <v>0.07088989441930618</v>
+        <v>7.0889894419306182E-2</v>
       </c>
       <c r="D144">
-        <v>1.222239558953555</v>
+        <v>1.2222395589535551</v>
       </c>
       <c r="E144">
-        <v>0.06754776914052932</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5">
+        <v>6.7547769140529318E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.9544615384615385</v>
+        <v>0.95446153846153847</v>
       </c>
       <c r="C145">
-        <v>0.06301323948382773</v>
+        <v>6.3013239483827727E-2</v>
       </c>
       <c r="D145">
-        <v>1.086435163514271</v>
+        <v>1.0864351635142711</v>
       </c>
       <c r="E145">
-        <v>0.06014371350117957</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5">
+        <v>6.0143713501179571E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.9544615384615385</v>
+        <v>0.95446153846153847</v>
       </c>
       <c r="C146">
-        <v>0.04725992961287079</v>
+        <v>4.7259929612870788E-2</v>
       </c>
       <c r="D146">
-        <v>0.8148263726357032</v>
+        <v>0.81482637263570323</v>
       </c>
       <c r="E146">
-        <v>0.04510778512588468</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5">
+        <v>4.5107785125884682E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.956068376068376</v>
+        <v>0.95606837606837602</v>
       </c>
       <c r="C147">
-        <v>0.04725992961287079</v>
+        <v>4.7259929612870788E-2</v>
       </c>
       <c r="D147">
-        <v>0.8148263726357032</v>
+        <v>0.81482637263570323</v>
       </c>
       <c r="E147">
-        <v>0.04518372415808313</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5">
+        <v>4.5183724158083131E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.9576752136752137</v>
+        <v>0.95767521367521369</v>
       </c>
       <c r="C148">
-        <v>0.03938327467739232</v>
+        <v>3.9383274677392319E-2</v>
       </c>
       <c r="D148">
-        <v>0.6790219771964192</v>
+        <v>0.67902197719641921</v>
       </c>
       <c r="E148">
-        <v>0.03771638599190132</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5">
+        <v>3.7716385991901323E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.9592820512820514</v>
+        <v>0.95928205128205135</v>
       </c>
       <c r="C149">
-        <v>0.03150661974191386</v>
+        <v>3.1506619741913863E-2</v>
       </c>
       <c r="D149">
-        <v>0.5432175817571355</v>
+        <v>0.54321758175713553</v>
       </c>
       <c r="E149">
-        <v>0.03022373481498671</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5">
+        <v>3.0223734814986709E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.9592820512820514</v>
+        <v>0.95928205128205135</v>
       </c>
       <c r="C150">
-        <v>0.03150661974191386</v>
+        <v>3.1506619741913863E-2</v>
       </c>
       <c r="D150">
-        <v>0.5432175817571355</v>
+        <v>0.54321758175713553</v>
       </c>
       <c r="E150">
-        <v>0.03022373481498671</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5">
+        <v>3.0223734814986709E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -3127,16 +3167,16 @@
         <v>0.9608888888888889</v>
       </c>
       <c r="C151">
-        <v>0.02362996480643539</v>
+        <v>2.3629964806435391E-2</v>
       </c>
       <c r="D151">
-        <v>0.4074131863178516</v>
+        <v>0.40741318631785162</v>
       </c>
       <c r="E151">
-        <v>0.02270577062733925</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
+        <v>2.270577062733925E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -3144,174 +3184,174 @@
         <v>0.9608888888888889</v>
       </c>
       <c r="C152">
-        <v>0.02362996480643539</v>
+        <v>2.3629964806435391E-2</v>
       </c>
       <c r="D152">
-        <v>0.4074131863178516</v>
+        <v>0.40741318631785162</v>
       </c>
       <c r="E152">
-        <v>0.02270577062733925</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5">
+        <v>2.270577062733925E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.9624957264957266</v>
+        <v>0.96249572649572657</v>
       </c>
       <c r="C153">
-        <v>0.02362996480643539</v>
+        <v>2.3629964806435391E-2</v>
       </c>
       <c r="D153">
-        <v>0.4074131863178516</v>
+        <v>0.40741318631785162</v>
       </c>
       <c r="E153">
-        <v>0.02274374014343849</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5">
+        <v>2.2743740143438489E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.9624957264957266</v>
+        <v>0.96249572649572657</v>
       </c>
       <c r="C154">
-        <v>0.01575330987095693</v>
+        <v>1.5753309870956932E-2</v>
       </c>
       <c r="D154">
-        <v>0.2716087908785678</v>
+        <v>0.27160879087856782</v>
       </c>
       <c r="E154">
-        <v>0.01516249342895899</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5">
+        <v>1.5162493428958991E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.9624957264957266</v>
+        <v>0.96249572649572657</v>
       </c>
       <c r="C155">
-        <v>0.01575330987095693</v>
+        <v>1.5753309870956932E-2</v>
       </c>
       <c r="D155">
-        <v>0.2716087908785678</v>
+        <v>0.27160879087856782</v>
       </c>
       <c r="E155">
-        <v>0.01516249342895899</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5">
+        <v>1.5162493428958991E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.9641025641025641</v>
+        <v>0.96410256410256412</v>
       </c>
       <c r="C156">
-        <v>0.007876654935478466</v>
+        <v>7.8766549354784658E-3</v>
       </c>
       <c r="D156">
-        <v>0.1358043954392839</v>
+        <v>0.13580439543928391</v>
       </c>
       <c r="E156">
-        <v>0.007593903219845905</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5">
+        <v>7.5939032198459053E-3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.9641025641025641</v>
+        <v>0.96410256410256412</v>
       </c>
       <c r="C157">
-        <v>0.007876654935478466</v>
+        <v>7.8766549354784658E-3</v>
       </c>
       <c r="D157">
-        <v>0.1358043954392839</v>
+        <v>0.13580439543928391</v>
       </c>
       <c r="E157">
-        <v>0.007593903219845905</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5">
+        <v>7.5939032198459053E-3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.9641025641025641</v>
+        <v>0.96410256410256412</v>
       </c>
       <c r="C158">
-        <v>0.007876654935478466</v>
+        <v>7.8766549354784658E-3</v>
       </c>
       <c r="D158">
-        <v>0.1358043954392839</v>
+        <v>0.13580439543928391</v>
       </c>
       <c r="E158">
-        <v>0.007593903219845905</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5">
+        <v>7.5939032198459053E-3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.9641025641025641</v>
+        <v>0.96410256410256412</v>
       </c>
       <c r="C159">
-        <v>0.007876654935478466</v>
+        <v>7.8766549354784658E-3</v>
       </c>
       <c r="D159">
-        <v>0.1358043954392839</v>
+        <v>0.13580439543928391</v>
       </c>
       <c r="E159">
-        <v>0.007593903219845905</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5">
+        <v>7.5939032198459053E-3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.9657094017094017</v>
+        <v>0.96570940170940167</v>
       </c>
       <c r="C160">
-        <v>0.007876654935478466</v>
+        <v>7.8766549354784658E-3</v>
       </c>
       <c r="D160">
-        <v>0.1358043954392839</v>
+        <v>0.13580439543928391</v>
       </c>
       <c r="E160">
-        <v>0.007606559725212315</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5">
+        <v>7.6065597252123153E-3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.9657094017094017</v>
+        <v>0.96570940170940167</v>
       </c>
       <c r="C161">
-        <v>0.007876654935478466</v>
+        <v>7.8766549354784658E-3</v>
       </c>
       <c r="D161">
-        <v>0.1358043954392839</v>
+        <v>0.13580439543928391</v>
       </c>
       <c r="E161">
-        <v>0.007606559725212315</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5">
+        <v>7.6065597252123153E-3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.9657094017094017</v>
+        <v>0.96570940170940167</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -3323,97 +3363,97 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.9657094017094017</v>
+        <v>0.96570940170940167</v>
       </c>
       <c r="C163">
-        <v>0.007876654935478466</v>
+        <v>7.8766549354784658E-3</v>
       </c>
       <c r="D163">
-        <v>0.1358043954392839</v>
+        <v>0.13580439543928391</v>
       </c>
       <c r="E163">
-        <v>0.007606559725212315</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5">
+        <v>7.6065597252123153E-3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.9673162393162393</v>
+        <v>0.96731623931623933</v>
       </c>
       <c r="C164">
-        <v>0.007876654935478466</v>
+        <v>7.8766549354784658E-3</v>
       </c>
       <c r="D164">
-        <v>0.1358043954392839</v>
+        <v>0.13580439543928391</v>
       </c>
       <c r="E164">
-        <v>0.007619216230578725</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5">
+        <v>7.6192162305787252E-3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.9657094017094017</v>
+        <v>0.96570940170940167</v>
       </c>
       <c r="C165">
-        <v>0.007876654935478466</v>
+        <v>7.8766549354784658E-3</v>
       </c>
       <c r="D165">
-        <v>0.1358043954392839</v>
+        <v>0.13580439543928391</v>
       </c>
       <c r="E165">
-        <v>0.007606559725212315</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5">
+        <v>7.6065597252123153E-3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.9673162393162393</v>
+        <v>0.96731623931623933</v>
       </c>
       <c r="C166">
-        <v>0.007876654935478466</v>
+        <v>7.8766549354784658E-3</v>
       </c>
       <c r="D166">
-        <v>0.1358043954392839</v>
+        <v>0.13580439543928391</v>
       </c>
       <c r="E166">
-        <v>0.007619216230578725</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5">
+        <v>7.6192162305787252E-3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.9673162393162393</v>
+        <v>0.96731623931623933</v>
       </c>
       <c r="C167">
-        <v>0.007876654935478466</v>
+        <v>7.8766549354784658E-3</v>
       </c>
       <c r="D167">
-        <v>0.1358043954392839</v>
+        <v>0.13580439543928391</v>
       </c>
       <c r="E167">
-        <v>0.007619216230578725</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5">
+        <v>7.6192162305787252E-3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.9673162393162393</v>
+        <v>0.96731623931623933</v>
       </c>
       <c r="C168">
         <v>0</v>
@@ -3425,12 +3465,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.9673162393162393</v>
+        <v>0.96731623931623933</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -3442,29 +3482,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.9673162393162393</v>
+        <v>0.96731623931623933</v>
       </c>
       <c r="C170">
-        <v>0.007876654935478466</v>
+        <v>7.8766549354784658E-3</v>
       </c>
       <c r="D170">
-        <v>0.1358043954392839</v>
+        <v>0.13580439543928391</v>
       </c>
       <c r="E170">
-        <v>0.007619216230578725</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5">
+        <v>7.6192162305787252E-3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.9673162393162393</v>
+        <v>0.96731623931623933</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -3476,7 +3516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -3493,12 +3533,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.9673162393162393</v>
+        <v>0.96731623931623933</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -3510,7 +3550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -3527,7 +3567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -3544,7 +3584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -3561,7 +3601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -3578,7 +3618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -3595,7 +3635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -3612,7 +3652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -3629,7 +3669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -3646,7 +3686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -3663,7 +3703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -3680,7 +3720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -3697,7 +3737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -3714,12 +3754,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.9705299145299146</v>
+        <v>0.97052991452991455</v>
       </c>
       <c r="C186">
         <v>0</v>
@@ -3731,12 +3771,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.9705299145299146</v>
+        <v>0.97052991452991455</v>
       </c>
       <c r="C187">
         <v>0</v>
@@ -3748,12 +3788,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.9705299145299146</v>
+        <v>0.97052991452991455</v>
       </c>
       <c r="C188">
         <v>0</v>
@@ -3765,12 +3805,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.9705299145299146</v>
+        <v>0.97052991452991455</v>
       </c>
       <c r="C189">
         <v>0</v>
@@ -3782,12 +3822,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.9705299145299146</v>
+        <v>0.97052991452991455</v>
       </c>
       <c r="C190">
         <v>0</v>
@@ -3799,12 +3839,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.9705299145299146</v>
+        <v>0.97052991452991455</v>
       </c>
       <c r="C191">
         <v>0</v>
@@ -3816,12 +3856,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.9705299145299146</v>
+        <v>0.97052991452991455</v>
       </c>
       <c r="C192">
         <v>0</v>
@@ -3833,12 +3873,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.9705299145299146</v>
+        <v>0.97052991452991455</v>
       </c>
       <c r="C193">
         <v>0</v>
@@ -3850,12 +3890,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.9705299145299146</v>
+        <v>0.97052991452991455</v>
       </c>
       <c r="C194">
         <v>0</v>
@@ -3867,12 +3907,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.9705299145299146</v>
+        <v>0.97052991452991455</v>
       </c>
       <c r="C195">
         <v>0</v>
@@ -3884,12 +3924,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.9705299145299146</v>
+        <v>0.97052991452991455</v>
       </c>
       <c r="C196">
         <v>0</v>
@@ -3901,12 +3941,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>195</v>
       </c>
       <c r="B197">
-        <v>0.9705299145299146</v>
+        <v>0.97052991452991455</v>
       </c>
       <c r="C197">
         <v>0</v>
@@ -3918,12 +3958,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>196</v>
       </c>
       <c r="B198">
-        <v>0.9705299145299146</v>
+        <v>0.97052991452991455</v>
       </c>
       <c r="C198">
         <v>0</v>
@@ -3935,12 +3975,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.9705299145299146</v>
+        <v>0.97052991452991455</v>
       </c>
       <c r="C199">
         <v>0</v>
@@ -3952,12 +3992,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>198</v>
       </c>
       <c r="B200">
-        <v>0.9705299145299146</v>
+        <v>0.97052991452991455</v>
       </c>
       <c r="C200">
         <v>0</v>
@@ -3969,12 +4009,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.9705299145299146</v>
+        <v>0.97052991452991455</v>
       </c>
       <c r="C201">
         <v>0</v>
@@ -3986,12 +4026,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.9705299145299146</v>
+        <v>0.97052991452991455</v>
       </c>
       <c r="C202">
         <v>0</v>
@@ -4003,12 +4043,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.9705299145299146</v>
+        <v>0.97052991452991455</v>
       </c>
       <c r="C203">
         <v>0</v>
@@ -4020,12 +4060,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.9721367521367522</v>
+        <v>0.97213675213675221</v>
       </c>
       <c r="C204">
         <v>0</v>
@@ -4037,12 +4077,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>203</v>
       </c>
       <c r="B205">
-        <v>0.9721367521367522</v>
+        <v>0.97213675213675221</v>
       </c>
       <c r="C205">
         <v>0</v>
@@ -4054,12 +4094,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>204</v>
       </c>
       <c r="B206">
-        <v>0.9721367521367522</v>
+        <v>0.97213675213675221</v>
       </c>
       <c r="C206">
         <v>0</v>
@@ -4071,12 +4111,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.9721367521367522</v>
+        <v>0.97213675213675221</v>
       </c>
       <c r="C207">
         <v>0</v>
@@ -4088,12 +4128,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>206</v>
       </c>
       <c r="B208">
-        <v>0.9721367521367522</v>
+        <v>0.97213675213675221</v>
       </c>
       <c r="C208">
         <v>0</v>
@@ -4105,12 +4145,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>207</v>
       </c>
       <c r="B209">
-        <v>0.9721367521367522</v>
+        <v>0.97213675213675221</v>
       </c>
       <c r="C209">
         <v>0</v>
@@ -4122,12 +4162,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>208</v>
       </c>
       <c r="B210">
-        <v>0.9721367521367522</v>
+        <v>0.97213675213675221</v>
       </c>
       <c r="C210">
         <v>0</v>
@@ -4139,12 +4179,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>209</v>
       </c>
       <c r="B211">
-        <v>0.9721367521367522</v>
+        <v>0.97213675213675221</v>
       </c>
       <c r="C211">
         <v>0</v>
@@ -4156,12 +4196,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>210</v>
       </c>
       <c r="B212">
-        <v>0.9721367521367522</v>
+        <v>0.97213675213675221</v>
       </c>
       <c r="C212">
         <v>0</v>
@@ -4173,12 +4213,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>211</v>
       </c>
       <c r="B213">
-        <v>0.9721367521367522</v>
+        <v>0.97213675213675221</v>
       </c>
       <c r="C213">
         <v>0</v>
@@ -4190,12 +4230,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.9705299145299146</v>
+        <v>0.97052991452991455</v>
       </c>
       <c r="C214">
         <v>0</v>
@@ -4207,12 +4247,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0.9721367521367522</v>
+        <v>0.97213675213675221</v>
       </c>
       <c r="C215">
         <v>0</v>
@@ -4224,12 +4264,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>214</v>
       </c>
       <c r="B216">
-        <v>0.9721367521367522</v>
+        <v>0.97213675213675221</v>
       </c>
       <c r="C216">
         <v>0</v>
@@ -4241,12 +4281,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>215</v>
       </c>
       <c r="B217">
-        <v>0.9721367521367522</v>
+        <v>0.97213675213675221</v>
       </c>
       <c r="C217">
         <v>0</v>
@@ -4258,12 +4298,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>216</v>
       </c>
       <c r="B218">
-        <v>0.9721367521367522</v>
+        <v>0.97213675213675221</v>
       </c>
       <c r="C218">
         <v>0</v>
@@ -4275,12 +4315,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>217</v>
       </c>
       <c r="B219">
-        <v>0.9721367521367522</v>
+        <v>0.97213675213675221</v>
       </c>
       <c r="C219">
         <v>0</v>
@@ -4292,12 +4332,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>218</v>
       </c>
       <c r="B220">
-        <v>0.9721367521367522</v>
+        <v>0.97213675213675221</v>
       </c>
       <c r="C220">
         <v>0</v>
@@ -4309,12 +4349,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>219</v>
       </c>
       <c r="B221">
-        <v>0.9721367521367522</v>
+        <v>0.97213675213675221</v>
       </c>
       <c r="C221">
         <v>0</v>
@@ -4326,12 +4366,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>220</v>
       </c>
       <c r="B222">
-        <v>0.9721367521367522</v>
+        <v>0.97213675213675221</v>
       </c>
       <c r="C222">
         <v>0</v>
@@ -4343,12 +4383,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.9721367521367522</v>
+        <v>0.97213675213675221</v>
       </c>
       <c r="C223">
         <v>0</v>
@@ -4360,12 +4400,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>222</v>
       </c>
       <c r="B224">
-        <v>0.9721367521367522</v>
+        <v>0.97213675213675221</v>
       </c>
       <c r="C224">
         <v>0</v>
@@ -4377,12 +4417,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.9721367521367522</v>
+        <v>0.97213675213675221</v>
       </c>
       <c r="C225">
         <v>0</v>
@@ -4394,12 +4434,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>224</v>
       </c>
       <c r="B226">
-        <v>0.9721367521367522</v>
+        <v>0.97213675213675221</v>
       </c>
       <c r="C226">
         <v>0</v>
@@ -4411,12 +4451,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>225</v>
       </c>
       <c r="B227">
-        <v>0.9721367521367522</v>
+        <v>0.97213675213675221</v>
       </c>
       <c r="C227">
         <v>0</v>
@@ -4428,12 +4468,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>226</v>
       </c>
       <c r="B228">
-        <v>0.9721367521367522</v>
+        <v>0.97213675213675221</v>
       </c>
       <c r="C228">
         <v>0</v>
@@ -4445,12 +4485,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>227</v>
       </c>
       <c r="B229">
-        <v>0.9721367521367522</v>
+        <v>0.97213675213675221</v>
       </c>
       <c r="C229">
         <v>0</v>
@@ -4462,12 +4502,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>228</v>
       </c>
       <c r="B230">
-        <v>0.9721367521367522</v>
+        <v>0.97213675213675221</v>
       </c>
       <c r="C230">
         <v>0</v>
@@ -4479,12 +4519,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>229</v>
       </c>
       <c r="B231">
-        <v>0.9721367521367522</v>
+        <v>0.97213675213675221</v>
       </c>
       <c r="C231">
         <v>0</v>
@@ -4496,12 +4536,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>230</v>
       </c>
       <c r="B232">
-        <v>0.9721367521367522</v>
+        <v>0.97213675213675221</v>
       </c>
       <c r="C232">
         <v>0</v>
@@ -4513,12 +4553,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>231</v>
       </c>
       <c r="B233">
-        <v>0.9721367521367522</v>
+        <v>0.97213675213675221</v>
       </c>
       <c r="C233">
         <v>0</v>
@@ -4530,12 +4570,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>232</v>
       </c>
       <c r="B234">
-        <v>0.9721367521367522</v>
+        <v>0.97213675213675221</v>
       </c>
       <c r="C234">
         <v>0</v>
@@ -4547,12 +4587,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>233</v>
       </c>
       <c r="B235">
-        <v>0.9721367521367522</v>
+        <v>0.97213675213675221</v>
       </c>
       <c r="C235">
         <v>0</v>
@@ -4564,12 +4604,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>234</v>
       </c>
       <c r="B236">
-        <v>0.9721367521367522</v>
+        <v>0.97213675213675221</v>
       </c>
       <c r="C236">
         <v>0</v>
@@ -4581,12 +4621,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.9737435897435898</v>
+        <v>0.97374358974358977</v>
       </c>
       <c r="C237">
         <v>0</v>
@@ -4598,12 +4638,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>236</v>
       </c>
       <c r="B238">
-        <v>0.9737435897435898</v>
+        <v>0.97374358974358977</v>
       </c>
       <c r="C238">
         <v>0</v>
@@ -4615,12 +4655,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>237</v>
       </c>
       <c r="B239">
-        <v>0.9721367521367522</v>
+        <v>0.97213675213675221</v>
       </c>
       <c r="C239">
         <v>0</v>
@@ -4632,12 +4672,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>238</v>
       </c>
       <c r="B240">
-        <v>0.9737435897435898</v>
+        <v>0.97374358974358977</v>
       </c>
       <c r="C240">
         <v>0</v>
@@ -4649,12 +4689,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>239</v>
       </c>
       <c r="B241">
-        <v>0.9721367521367522</v>
+        <v>0.97213675213675221</v>
       </c>
       <c r="C241">
         <v>0</v>
@@ -4666,12 +4706,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>240</v>
       </c>
       <c r="B242">
-        <v>0.9721367521367522</v>
+        <v>0.97213675213675221</v>
       </c>
       <c r="C242">
         <v>0</v>
@@ -4683,12 +4723,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>241</v>
       </c>
       <c r="B243">
-        <v>0.9721367521367522</v>
+        <v>0.97213675213675221</v>
       </c>
       <c r="C243">
         <v>0</v>
@@ -4700,12 +4740,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>242</v>
       </c>
       <c r="B244">
-        <v>0.9721367521367522</v>
+        <v>0.97213675213675221</v>
       </c>
       <c r="C244">
         <v>0</v>
@@ -4717,12 +4757,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>243</v>
       </c>
       <c r="B245">
-        <v>0.9737435897435898</v>
+        <v>0.97374358974358977</v>
       </c>
       <c r="C245">
         <v>0</v>
@@ -4734,12 +4774,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>244</v>
       </c>
       <c r="B246">
-        <v>0.9737435897435898</v>
+        <v>0.97374358974358977</v>
       </c>
       <c r="C246">
         <v>0</v>
@@ -4751,12 +4791,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>245</v>
       </c>
       <c r="B247">
-        <v>0.9737435897435898</v>
+        <v>0.97374358974358977</v>
       </c>
       <c r="C247">
         <v>0</v>
@@ -4768,12 +4808,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>246</v>
       </c>
       <c r="B248">
-        <v>0.9737435897435898</v>
+        <v>0.97374358974358977</v>
       </c>
       <c r="C248">
         <v>0</v>
@@ -4785,12 +4825,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>247</v>
       </c>
       <c r="B249">
-        <v>0.9721367521367522</v>
+        <v>0.97213675213675221</v>
       </c>
       <c r="C249">
         <v>0</v>
@@ -4802,12 +4842,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>248</v>
       </c>
       <c r="B250">
-        <v>0.9721367521367522</v>
+        <v>0.97213675213675221</v>
       </c>
       <c r="C250">
         <v>0</v>
@@ -4819,12 +4859,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>249</v>
       </c>
       <c r="B251">
-        <v>0.9737435897435898</v>
+        <v>0.97374358974358977</v>
       </c>
       <c r="C251">
         <v>0</v>
@@ -4836,12 +4876,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>250</v>
       </c>
       <c r="B252">
-        <v>0.9737435897435898</v>
+        <v>0.97374358974358977</v>
       </c>
       <c r="C252">
         <v>0</v>
@@ -4853,12 +4893,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>251</v>
       </c>
       <c r="B253">
-        <v>0.9721367521367522</v>
+        <v>0.97213675213675221</v>
       </c>
       <c r="C253">
         <v>0</v>
@@ -4870,12 +4910,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>252</v>
       </c>
       <c r="B254">
-        <v>0.9721367521367522</v>
+        <v>0.97213675213675221</v>
       </c>
       <c r="C254">
         <v>0</v>
@@ -4887,12 +4927,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>253</v>
       </c>
       <c r="B255">
-        <v>0.9737435897435898</v>
+        <v>0.97374358974358977</v>
       </c>
       <c r="C255">
         <v>0</v>
@@ -4904,12 +4944,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>254</v>
       </c>
       <c r="B256">
-        <v>0.9737435897435898</v>
+        <v>0.97374358974358977</v>
       </c>
       <c r="C256">
         <v>0</v>
@@ -4921,12 +4961,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>255</v>
       </c>
       <c r="B257">
-        <v>0.9737435897435898</v>
+        <v>0.97374358974358977</v>
       </c>
       <c r="C257">
         <v>0</v>
